--- a/Bluesky_tools/Layer_Concepts.xlsx
+++ b/Bluesky_tools/Layer_Concepts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andub\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmorfin/Desktop/M2/M2_test_scenario/Bluesky_tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D526FB2-9975-479C-AB65-439BC71FB655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D16E62-6FEC-AF42-A65E-0FD990F9468C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{661BB4EB-A2EA-49FB-9BF8-A4D5D5584BF0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="37180" windowHeight="23500" xr2:uid="{661BB4EB-A2EA-49FB-9BF8-A4D5D5584BF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Malik" sheetId="1" r:id="rId1"/>
@@ -156,11 +156,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,14 +591,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409424C6-ACDE-4CDA-85C1-AED70F552C96}">
   <dimension ref="A3:Z52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
@@ -625,12 +625,12 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -657,10 +657,10 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="6"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="Z4" s="8"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
@@ -687,10 +687,10 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="6"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="Z5" s="8"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
@@ -717,10 +717,10 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="6"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="Z6" s="8"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2"/>
@@ -747,10 +747,10 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="6"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="Z7" s="8"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -777,10 +777,10 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="6"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="Z8" s="8"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="3"/>
@@ -807,10 +807,10 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="6"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="Z9" s="8"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -839,10 +839,10 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="6"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="Z10" s="8"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="2"/>
@@ -869,12 +869,12 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="6" t="s">
+      <c r="Z11" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -899,10 +899,10 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
-      <c r="Z12" s="6"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="Z12" s="8"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="4"/>
@@ -929,10 +929,10 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="6"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="Z13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -957,10 +957,10 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="6"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="Z14" s="8"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="2"/>
@@ -987,10 +987,10 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="6"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="Z15" s="8"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1015,10 +1015,10 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="6"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="Z16" s="8"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="3"/>
@@ -1045,10 +1045,10 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="6"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="Z17" s="8"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1073,10 +1073,10 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="6"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="Z18" s="8"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="2"/>
@@ -1103,12 +1103,12 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="6" t="s">
+      <c r="Z19" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1133,10 +1133,10 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="6"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="Z20" s="8"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="4"/>
@@ -1163,10 +1163,10 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="6"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="Z21" s="8"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1191,10 +1191,10 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="6"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="Z22" s="8"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="2"/>
@@ -1221,10 +1221,10 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="6"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="Z23" s="8"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1249,10 +1249,10 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="6"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="Z24" s="8"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="3"/>
@@ -1279,10 +1279,10 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
-      <c r="Z25" s="6"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="Z25" s="8"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1307,10 +1307,10 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
-      <c r="Z26" s="6"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="Z26" s="8"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="2"/>
@@ -1337,12 +1337,12 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="6" t="s">
+      <c r="Z27" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1367,10 +1367,10 @@
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="6"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="Z28" s="8"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="4"/>
@@ -1397,10 +1397,10 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="6"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+      <c r="Z29" s="8"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1425,10 +1425,10 @@
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
-      <c r="Z30" s="6"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="Z30" s="8"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="2"/>
@@ -1455,10 +1455,10 @@
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
-      <c r="Z31" s="6"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="Z31" s="8"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1483,10 +1483,10 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="6"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="Z32" s="8"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="3"/>
@@ -1513,10 +1513,10 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
-      <c r="Z33" s="6"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
+      <c r="Z33" s="8"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1541,97 +1541,92 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
-      <c r="Z34" s="6"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D40" s="7"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D41" s="7"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D42" s="7"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D43" s="7"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-    </row>
-    <row r="49" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-    </row>
-    <row r="50" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-    </row>
-    <row r="51" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-    </row>
-    <row r="52" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
+      <c r="Z34" s="8"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D40" s="6"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D41" s="6"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D42" s="6"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D43" s="6"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="51" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+    </row>
+    <row r="52" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A27:A28"/>
     <mergeCell ref="Z3:Z10"/>
     <mergeCell ref="Z11:Z18"/>
     <mergeCell ref="Z19:Z26"/>
@@ -1647,6 +1642,11 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1662,10 +1662,10 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
@@ -1692,12 +1692,12 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1724,10 +1724,10 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="6"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="Z4" s="8"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2"/>
@@ -1754,10 +1754,10 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="6"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="Z5" s="8"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1786,10 +1786,10 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="6"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="Z6" s="8"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4"/>
@@ -1816,12 +1816,12 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="6" t="s">
+      <c r="Z7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1846,10 +1846,10 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="6"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="Z8" s="8"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="2"/>
@@ -1876,10 +1876,10 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="6"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="Z9" s="8"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1904,10 +1904,10 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
-      <c r="Z10" s="6"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="Z10" s="8"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="4"/>
@@ -1934,12 +1934,12 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
-      <c r="Z11" s="6" t="s">
+      <c r="Z11" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1964,10 +1964,10 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="6"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="Z12" s="8"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="2"/>
@@ -1994,10 +1994,10 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="6"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="Z13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2022,10 +2022,10 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="6"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="Z14" s="8"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="4"/>
@@ -2052,12 +2052,12 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="6" t="s">
+      <c r="Z15" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2082,10 +2082,10 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="6"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="Z16" s="8"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="2"/>
@@ -2112,10 +2112,10 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="6"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="Z17" s="8"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2140,10 +2140,10 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="6"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="Z18" s="8"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="4"/>
@@ -2170,12 +2170,12 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
-      <c r="Z19" s="6" t="s">
+      <c r="Z19" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2200,10 +2200,10 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
-      <c r="Z20" s="6"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="Z20" s="8"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="2"/>
@@ -2230,10 +2230,10 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="6"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="Z21" s="8"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2258,10 +2258,10 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="6"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="Z22" s="8"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="4"/>
@@ -2288,12 +2288,12 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="6" t="s">
+      <c r="Z23" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2318,10 +2318,10 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="6"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="Z24" s="8"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="2"/>
@@ -2348,10 +2348,10 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="6"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="Z25" s="8"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2376,10 +2376,10 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="6"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="Z26" s="8"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="4"/>
@@ -2406,12 +2406,12 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="6" t="s">
+      <c r="Z27" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2436,10 +2436,10 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
-      <c r="Z28" s="6"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="Z28" s="8"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="2"/>
@@ -2466,10 +2466,10 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="6"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+      <c r="Z29" s="8"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2494,10 +2494,10 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="6"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="Z30" s="8"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="4"/>
@@ -2524,12 +2524,12 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="6" t="s">
+      <c r="Z31" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2554,10 +2554,10 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="6"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="Z32" s="8"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="2"/>
@@ -2584,10 +2584,10 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
-      <c r="Z33" s="6"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
+      <c r="Z33" s="8"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2612,16 +2612,20 @@
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
-      <c r="Z34" s="6"/>
+      <c r="Z34" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="Z31:Z34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="Z7:Z10"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Z15:Z18"/>
+    <mergeCell ref="Z19:Z22"/>
     <mergeCell ref="Z23:Z26"/>
     <mergeCell ref="Z27:Z30"/>
     <mergeCell ref="A15:A16"/>
@@ -2630,16 +2634,12 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="Z7:Z10"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Z15:Z18"/>
-    <mergeCell ref="Z19:Z22"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="Z31:Z34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2650,14 +2650,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FCCE8B-0AC9-4354-91C2-04F991565FC5}">
   <dimension ref="A3:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
@@ -2684,12 +2684,12 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2716,10 +2716,10 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="6"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="Z4" s="8"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2"/>
@@ -2746,10 +2746,10 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="6"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="Z5" s="8"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2776,10 +2776,10 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="6"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="Z6" s="8"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="3"/>
@@ -2806,10 +2806,10 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="6"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="Z7" s="8"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2838,10 +2838,10 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="6"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="Z8" s="8"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="4"/>
@@ -2868,12 +2868,12 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
-      <c r="Z9" s="6" t="s">
+      <c r="Z9" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2898,10 +2898,10 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
-      <c r="Z10" s="6"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="Z10" s="8"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="2"/>
@@ -2928,10 +2928,10 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="6"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="Z11" s="8"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2956,10 +2956,10 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
-      <c r="Z12" s="6"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="Z12" s="8"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="3"/>
@@ -2986,10 +2986,10 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="6"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="Z13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3014,10 +3014,10 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="6"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="Z14" s="8"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="4"/>
@@ -3044,12 +3044,12 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="6" t="s">
+      <c r="Z15" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3074,10 +3074,10 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="6"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="Z16" s="8"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="2"/>
@@ -3104,10 +3104,10 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="6"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="Z17" s="8"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3132,10 +3132,10 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="6"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="Z18" s="8"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="3"/>
@@ -3162,10 +3162,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="6"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="Z19" s="8"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -3190,10 +3190,10 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
-      <c r="Z20" s="6"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="Z20" s="8"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="4"/>
@@ -3220,12 +3220,12 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="6" t="s">
+      <c r="Z21" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -3250,10 +3250,10 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="6"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="Z22" s="8"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="2"/>
@@ -3280,10 +3280,10 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="6"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="Z23" s="8"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3308,10 +3308,10 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="6"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="Z24" s="8"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="3"/>
@@ -3338,10 +3338,10 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
-      <c r="Z25" s="6"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="Z25" s="8"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -3366,10 +3366,10 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
-      <c r="Z26" s="6"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="Z26" s="8"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="4"/>
@@ -3396,12 +3396,12 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="6" t="s">
+      <c r="Z27" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -3426,10 +3426,10 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
-      <c r="Z28" s="6"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="Z28" s="8"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="2"/>
@@ -3456,10 +3456,10 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="6"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+      <c r="Z29" s="8"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3484,10 +3484,10 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="6"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="Z30" s="8"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="3"/>
@@ -3514,10 +3514,10 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
-      <c r="Z31" s="6"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="Z31" s="8"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3542,10 +3542,10 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
-      <c r="Z32" s="6"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="Z32" s="8"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="4"/>
@@ -3572,12 +3572,12 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="6" t="s">
+      <c r="Z33" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -3602,10 +3602,10 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="6"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="Z34" s="8"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="2"/>
@@ -3632,10 +3632,10 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
-      <c r="Z35" s="6"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
+      <c r="Z35" s="8"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3660,10 +3660,10 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
-      <c r="Z36" s="6"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="Z36" s="8"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="3"/>
@@ -3690,10 +3690,10 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
-      <c r="Z37" s="6"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
+      <c r="Z37" s="8"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -3718,10 +3718,22 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
-      <c r="Z38" s="6"/>
+      <c r="Z38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Z3:Z8"/>
+    <mergeCell ref="Z9:Z14"/>
+    <mergeCell ref="Z15:Z20"/>
+    <mergeCell ref="Z21:Z26"/>
+    <mergeCell ref="Z27:Z32"/>
+    <mergeCell ref="Z33:Z38"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
@@ -3734,18 +3746,6 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="Z33:Z38"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="Z3:Z8"/>
-    <mergeCell ref="Z9:Z14"/>
-    <mergeCell ref="Z15:Z20"/>
-    <mergeCell ref="Z21:Z26"/>
-    <mergeCell ref="Z27:Z32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
